--- a/english-store/knowladgeFiltration/results2000.xlsx
+++ b/english-store/knowladgeFiltration/results2000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\pavelofficial.github.io\english-store\knowladgeFiltration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F424C1C4-C502-40DC-AF5C-EE69F8F4EF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677185A2-56E8-40F0-92BB-CB02BDAC9B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="-120" windowWidth="22950" windowHeight="13740" xr2:uid="{E8C4A385-85C3-450F-8BAA-EDCBA93C6A53}"/>
   </bookViews>
@@ -18204,7 +18204,7 @@
   <dimension ref="B1:E2014"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
-      <selection activeCell="H632" sqref="H632"/>
+      <selection activeCell="D625" sqref="D625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
